--- a/classification/Models/Resultados.xlsx
+++ b/classification/Models/Resultados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\Desktop\Statistical_project\classification\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18C0BC0E-143C-4B80-839E-EFCBA6322C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D252A9FD-F65E-4860-AD41-9CE1E2018E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9079DA17-4F11-4043-A702-5EAD4A73ED9A}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>AUC for Training Set: 0.6176</t>
   </si>
   <si>
-    <t>BaggingClassifier + RandomForestClassifier</t>
-  </si>
-  <si>
     <t>AUC for Training Set: 0.5000</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>RandomForestClassifier + Boruta + Undersample</t>
+  </si>
+  <si>
+    <t>BaggingClassifier + RandomForestClassifier (BEST)</t>
   </si>
 </sst>
 </file>
@@ -221,7 +221,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54300139-727F-4DDB-9177-1EB2D81D2920}">
-  <dimension ref="B2:D33"/>
+  <dimension ref="B2:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,211 +571,249 @@
     <col min="4" max="4" width="161.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D15" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="1" t="s">
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D20" s="1" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="1" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="1" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D25" s="1" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="5" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="1" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="1" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D32" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D33" s="1" t="s">
-        <v>43</v>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
